--- a/참고자료/My Project 요구사항정의서.xlsx
+++ b/참고자료/My Project 요구사항정의서.xlsx
@@ -9,19 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19530" windowHeight="6885" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19530" windowHeight="6885" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항분석" sheetId="27" r:id="rId1"/>
     <sheet name="요구사항분석 (2)" sheetId="28" r:id="rId2"/>
     <sheet name="블로그 신규" sheetId="29" r:id="rId3"/>
+    <sheet name="정처기정보공유" sheetId="30" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="125">
   <si>
     <t>구분</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -487,6 +488,90 @@
   </si>
   <si>
     <t>회원정보 삭제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> NCS가 적용되어 개편된 정보처리기사 시험 정보 공유게시판</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정보처리기사 시험정보 공유 및 광고게시 수익창출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자를 따로두지 않은 일반 사용자들로 구성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>여러 사람들이 시험 정보에대한 내용 공유</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 게시판</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기출문제 게시판</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q&amp;A 게시판</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시험 후기 게시판</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRUD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE, DELETE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRUD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이지 상세보기 기능구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>약술형 대비 묻고 답하기 기능 추가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>추천기능구현, SEQ관리(최신글부터 내림차순구현)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>d-day기능, 당해년도 시험 일정, 합격자 발표일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 이용자들이 PW 활용 자유롭게 시험기출 게시글 작성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판이용자들이 시험에관한 질문을 PW 활용 자유롭게 작성가능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 이용자들이 시험본 후기를 PW활용 자유롭게 작성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이지 상서보기 기능 구현, 댓글 입력시 PW입력기능추가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이지 상세보기 기능구현, 댓글 입력시 PW 입력기능 추가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이지 상세보기 기능, 댓글 입력시 PW입력기능 추가</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1446,6 +1531,120 @@
     <xf numFmtId="14" fontId="9" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1467,12 +1666,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1514,114 +1707,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1643,7 +1728,196 @@
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준_서비스정의 계획" xfId="1"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="50">
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="55"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="55"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="55"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="55"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="55"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="55"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="55"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="55"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="55"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="55"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="55"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="55"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="55"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="55"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="55"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="55"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="55"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="55"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="55"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="55"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="55"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="55"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="55"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="55"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="55"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="55"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="55"/>
+        </top>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <top style="thin">
@@ -1746,6 +2020,20 @@
       </border>
     </dxf>
     <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="55"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="55"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <condense val="0"/>
         <extend val="0"/>
@@ -1756,6 +2044,39 @@
           <bgColor indexed="44"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="55"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="44"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="44"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="55"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="55"/>
+        </top>
+      </border>
     </dxf>
     <dxf>
       <border>
@@ -1811,7 +2132,7 @@
         <xdr:cNvPr id="3" name="오른쪽 중괄호 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1873,7 +2194,7 @@
         <xdr:cNvPr id="2" name="오른쪽 중괄호 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1935,7 +2256,69 @@
         <xdr:cNvPr id="2" name="오른쪽 중괄호 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7362825" y="971550"/>
+          <a:ext cx="314325" cy="2257425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="오른쪽 중괄호 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2290,46 +2673,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="9" customHeight="1">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="35"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="73"/>
     </row>
     <row r="3" spans="2:11" ht="9" customHeight="1">
-      <c r="B3" s="36"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="38"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="76"/>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="88" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="68" t="s">
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="69"/>
+      <c r="H4" s="61"/>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="88" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
       <c r="G5" s="31">
         <v>44039</v>
       </c>
@@ -2339,224 +2722,224 @@
     </row>
     <row r="6" spans="2:11" ht="9" customHeight="1"/>
     <row r="7" spans="2:11">
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="45"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="81"/>
       <c r="G7" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="55"/>
+      <c r="H7" s="90"/>
+      <c r="I7" s="91"/>
       <c r="K7" s="29" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="46"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="48"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="84"/>
       <c r="G8" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="56"/>
-      <c r="I8" s="57"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="65"/>
       <c r="K8" s="29" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="9" spans="2:11">
-      <c r="B9" s="46"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="70" t="s">
+      <c r="B9" s="82"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="H9" s="39" t="s">
+      <c r="H9" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="I9" s="39"/>
+      <c r="I9" s="77"/>
       <c r="K9" s="29" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="46"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="39" t="s">
+      <c r="B10" s="82"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="I10" s="39"/>
+      <c r="I10" s="77"/>
       <c r="K10" s="29" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="11" spans="2:11">
-      <c r="B11" s="46"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="48"/>
+      <c r="B11" s="82"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="84"/>
       <c r="G11" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="H11" s="56"/>
-      <c r="I11" s="57"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="65"/>
     </row>
     <row r="12" spans="2:11">
-      <c r="B12" s="46"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="48"/>
+      <c r="B12" s="82"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="83"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="84"/>
       <c r="G12" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="H12" s="56"/>
-      <c r="I12" s="57"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="65"/>
       <c r="K12" s="29" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="13" spans="2:11">
-      <c r="B13" s="49"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="51"/>
+      <c r="B13" s="85"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="87"/>
       <c r="G13" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="H13" s="56"/>
-      <c r="I13" s="57"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="65"/>
     </row>
     <row r="14" spans="2:11">
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="79" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="72" t="s">
+      <c r="C14" s="80"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="H14" s="73"/>
-      <c r="I14" s="74"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="68"/>
     </row>
     <row r="15" spans="2:11">
-      <c r="B15" s="49"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="72" t="s">
+      <c r="B15" s="85"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="87"/>
+      <c r="G15" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="H15" s="73"/>
-      <c r="I15" s="74"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="68"/>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="53" t="s">
+      <c r="C16" s="78"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="89" t="s">
         <v>51</v>
       </c>
-      <c r="H16" s="53" t="s">
+      <c r="H16" s="89" t="s">
         <v>51</v>
       </c>
-      <c r="I16" s="53" t="s">
+      <c r="I16" s="89" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="17" spans="2:20">
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="53" t="s">
+      <c r="C17" s="78"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="89" t="s">
         <v>52</v>
       </c>
-      <c r="H17" s="53" t="s">
+      <c r="H17" s="89" t="s">
         <v>52</v>
       </c>
-      <c r="I17" s="53" t="s">
+      <c r="I17" s="89" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="18" spans="2:20" ht="6.75" customHeight="1" thickBot="1"/>
     <row r="19" spans="2:20">
-      <c r="B19" s="61" t="s">
+      <c r="B19" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="40" t="s">
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="G19" s="67" t="s">
+      <c r="G19" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="H19" s="40" t="s">
+      <c r="H19" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="I19" s="40" t="s">
+      <c r="I19" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="J19" s="40" t="s">
+      <c r="J19" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="K19" s="75" t="s">
+      <c r="K19" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="L19" s="62"/>
-      <c r="M19" s="62"/>
-      <c r="N19" s="63"/>
-      <c r="O19" s="77" t="s">
+      <c r="L19" s="52"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="53"/>
+      <c r="O19" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="P19" s="78"/>
-      <c r="Q19" s="78"/>
-      <c r="R19" s="78"/>
-      <c r="S19" s="79"/>
-      <c r="T19" s="80" t="s">
+      <c r="P19" s="43"/>
+      <c r="Q19" s="43"/>
+      <c r="R19" s="43"/>
+      <c r="S19" s="44"/>
+      <c r="T19" s="45" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="20" spans="2:20" ht="17.25" thickBot="1">
-      <c r="B20" s="64"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="76"/>
-      <c r="L20" s="65"/>
-      <c r="M20" s="65"/>
-      <c r="N20" s="66"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="70"/>
+      <c r="L20" s="55"/>
+      <c r="M20" s="55"/>
+      <c r="N20" s="56"/>
       <c r="O20" s="21" t="s">
         <v>4</v>
       </c>
@@ -2572,7 +2955,7 @@
       <c r="S20" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="T20" s="81"/>
+      <c r="T20" s="46"/>
     </row>
     <row r="21" spans="2:20">
       <c r="B21" s="2">
@@ -2602,12 +2985,12 @@
       <c r="J21" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K21" s="82" t="s">
+      <c r="K21" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="L21" s="83"/>
-      <c r="M21" s="83"/>
-      <c r="N21" s="84"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="49"/>
       <c r="O21" s="16" t="s">
         <v>23</v>
       </c>
@@ -2637,12 +3020,12 @@
       <c r="J22" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="K22" s="58" t="s">
+      <c r="K22" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="L22" s="59"/>
-      <c r="M22" s="59"/>
-      <c r="N22" s="60"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="41"/>
       <c r="O22" s="17"/>
       <c r="P22" s="18"/>
       <c r="Q22" s="18"/>
@@ -2662,12 +3045,12 @@
       <c r="J23" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="K23" s="85" t="s">
+      <c r="K23" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="L23" s="59"/>
-      <c r="M23" s="59"/>
-      <c r="N23" s="60"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="41"/>
       <c r="O23" s="18"/>
       <c r="P23" s="18"/>
       <c r="Q23" s="18"/>
@@ -2687,10 +3070,10 @@
       <c r="J24" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="K24" s="85"/>
-      <c r="L24" s="59"/>
-      <c r="M24" s="59"/>
-      <c r="N24" s="60"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="41"/>
       <c r="O24" s="18"/>
       <c r="P24" s="18"/>
       <c r="Q24" s="18"/>
@@ -2710,10 +3093,10 @@
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
       <c r="J25" s="9"/>
-      <c r="K25" s="85"/>
-      <c r="L25" s="59"/>
-      <c r="M25" s="59"/>
-      <c r="N25" s="60"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="41"/>
       <c r="O25" s="18"/>
       <c r="P25" s="18"/>
       <c r="Q25" s="18"/>
@@ -2731,10 +3114,10 @@
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
       <c r="J26" s="9"/>
-      <c r="K26" s="85"/>
-      <c r="L26" s="59"/>
-      <c r="M26" s="59"/>
-      <c r="N26" s="60"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="41"/>
       <c r="O26" s="18"/>
       <c r="P26" s="18"/>
       <c r="Q26" s="18"/>
@@ -2752,10 +3135,10 @@
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
       <c r="J27" s="9"/>
-      <c r="K27" s="85"/>
-      <c r="L27" s="59"/>
-      <c r="M27" s="59"/>
-      <c r="N27" s="60"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="41"/>
       <c r="O27" s="18"/>
       <c r="P27" s="18"/>
       <c r="Q27" s="18"/>
@@ -2773,10 +3156,10 @@
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
       <c r="J28" s="9"/>
-      <c r="K28" s="85"/>
-      <c r="L28" s="59"/>
-      <c r="M28" s="59"/>
-      <c r="N28" s="60"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="41"/>
       <c r="O28" s="18"/>
       <c r="P28" s="18"/>
       <c r="Q28" s="18"/>
@@ -2794,10 +3177,10 @@
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
       <c r="J29" s="9"/>
-      <c r="K29" s="85"/>
-      <c r="L29" s="59"/>
-      <c r="M29" s="59"/>
-      <c r="N29" s="60"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="40"/>
+      <c r="N29" s="41"/>
       <c r="O29" s="18"/>
       <c r="P29" s="18"/>
       <c r="Q29" s="18"/>
@@ -2815,10 +3198,10 @@
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
       <c r="J30" s="9"/>
-      <c r="K30" s="85"/>
-      <c r="L30" s="59"/>
-      <c r="M30" s="59"/>
-      <c r="N30" s="60"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="40"/>
+      <c r="N30" s="41"/>
       <c r="O30" s="18"/>
       <c r="P30" s="18"/>
       <c r="Q30" s="18"/>
@@ -2840,10 +3223,10 @@
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
       <c r="J31" s="9"/>
-      <c r="K31" s="85"/>
-      <c r="L31" s="59"/>
-      <c r="M31" s="59"/>
-      <c r="N31" s="60"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="40"/>
+      <c r="N31" s="41"/>
       <c r="O31" s="18"/>
       <c r="P31" s="18"/>
       <c r="Q31" s="18"/>
@@ -2861,10 +3244,10 @@
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
       <c r="J32" s="9"/>
-      <c r="K32" s="85"/>
-      <c r="L32" s="59"/>
-      <c r="M32" s="59"/>
-      <c r="N32" s="60"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="40"/>
+      <c r="N32" s="41"/>
       <c r="O32" s="18"/>
       <c r="P32" s="18"/>
       <c r="Q32" s="18"/>
@@ -2882,10 +3265,10 @@
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
       <c r="J33" s="9"/>
-      <c r="K33" s="85"/>
-      <c r="L33" s="59"/>
-      <c r="M33" s="59"/>
-      <c r="N33" s="60"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="40"/>
+      <c r="N33" s="41"/>
       <c r="O33" s="18"/>
       <c r="P33" s="18"/>
       <c r="Q33" s="18"/>
@@ -2903,10 +3286,10 @@
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
       <c r="J34" s="9"/>
-      <c r="K34" s="85"/>
-      <c r="L34" s="59"/>
-      <c r="M34" s="59"/>
-      <c r="N34" s="60"/>
+      <c r="K34" s="39"/>
+      <c r="L34" s="40"/>
+      <c r="M34" s="40"/>
+      <c r="N34" s="41"/>
       <c r="O34" s="18"/>
       <c r="P34" s="18"/>
       <c r="Q34" s="18"/>
@@ -2924,10 +3307,10 @@
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
       <c r="J35" s="9"/>
-      <c r="K35" s="85"/>
-      <c r="L35" s="59"/>
-      <c r="M35" s="59"/>
-      <c r="N35" s="60"/>
+      <c r="K35" s="39"/>
+      <c r="L35" s="40"/>
+      <c r="M35" s="40"/>
+      <c r="N35" s="41"/>
       <c r="O35" s="18"/>
       <c r="P35" s="18"/>
       <c r="Q35" s="18"/>
@@ -2945,10 +3328,10 @@
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
       <c r="J36" s="9"/>
-      <c r="K36" s="85"/>
-      <c r="L36" s="59"/>
-      <c r="M36" s="59"/>
-      <c r="N36" s="60"/>
+      <c r="K36" s="39"/>
+      <c r="L36" s="40"/>
+      <c r="M36" s="40"/>
+      <c r="N36" s="41"/>
       <c r="O36" s="18"/>
       <c r="P36" s="18"/>
       <c r="Q36" s="18"/>
@@ -2966,10 +3349,10 @@
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
       <c r="J37" s="9"/>
-      <c r="K37" s="85"/>
-      <c r="L37" s="59"/>
-      <c r="M37" s="59"/>
-      <c r="N37" s="60"/>
+      <c r="K37" s="39"/>
+      <c r="L37" s="40"/>
+      <c r="M37" s="40"/>
+      <c r="N37" s="41"/>
       <c r="O37" s="18"/>
       <c r="P37" s="18"/>
       <c r="Q37" s="18"/>
@@ -2988,21 +3371,21 @@
       <c r="G38" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="H38" s="86" t="s">
+      <c r="H38" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="I38" s="87"/>
-      <c r="J38" s="87"/>
-      <c r="K38" s="87"/>
-      <c r="L38" s="87"/>
-      <c r="M38" s="87"/>
-      <c r="N38" s="87"/>
-      <c r="O38" s="87"/>
-      <c r="P38" s="87"/>
-      <c r="Q38" s="87"/>
-      <c r="R38" s="87"/>
-      <c r="S38" s="87"/>
-      <c r="T38" s="88"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="34"/>
+      <c r="M38" s="34"/>
+      <c r="N38" s="34"/>
+      <c r="O38" s="34"/>
+      <c r="P38" s="34"/>
+      <c r="Q38" s="34"/>
+      <c r="R38" s="34"/>
+      <c r="S38" s="34"/>
+      <c r="T38" s="35"/>
     </row>
     <row r="39" spans="2:20">
       <c r="B39" s="6"/>
@@ -3013,21 +3396,21 @@
       <c r="G39" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H39" s="86" t="s">
+      <c r="H39" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="I39" s="87"/>
-      <c r="J39" s="87"/>
-      <c r="K39" s="87"/>
-      <c r="L39" s="87"/>
-      <c r="M39" s="87"/>
-      <c r="N39" s="87"/>
-      <c r="O39" s="87"/>
-      <c r="P39" s="87"/>
-      <c r="Q39" s="87"/>
-      <c r="R39" s="87"/>
-      <c r="S39" s="87"/>
-      <c r="T39" s="88"/>
+      <c r="I39" s="34"/>
+      <c r="J39" s="34"/>
+      <c r="K39" s="34"/>
+      <c r="L39" s="34"/>
+      <c r="M39" s="34"/>
+      <c r="N39" s="34"/>
+      <c r="O39" s="34"/>
+      <c r="P39" s="34"/>
+      <c r="Q39" s="34"/>
+      <c r="R39" s="34"/>
+      <c r="S39" s="34"/>
+      <c r="T39" s="35"/>
     </row>
     <row r="40" spans="2:20">
       <c r="B40" s="6"/>
@@ -3038,21 +3421,21 @@
       <c r="G40" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H40" s="86" t="s">
+      <c r="H40" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="I40" s="87"/>
-      <c r="J40" s="87"/>
-      <c r="K40" s="87"/>
-      <c r="L40" s="87"/>
-      <c r="M40" s="87"/>
-      <c r="N40" s="87"/>
-      <c r="O40" s="87"/>
-      <c r="P40" s="87"/>
-      <c r="Q40" s="87"/>
-      <c r="R40" s="87"/>
-      <c r="S40" s="87"/>
-      <c r="T40" s="88"/>
+      <c r="I40" s="34"/>
+      <c r="J40" s="34"/>
+      <c r="K40" s="34"/>
+      <c r="L40" s="34"/>
+      <c r="M40" s="34"/>
+      <c r="N40" s="34"/>
+      <c r="O40" s="34"/>
+      <c r="P40" s="34"/>
+      <c r="Q40" s="34"/>
+      <c r="R40" s="34"/>
+      <c r="S40" s="34"/>
+      <c r="T40" s="35"/>
     </row>
     <row r="41" spans="2:20">
       <c r="B41" s="6"/>
@@ -3063,21 +3446,21 @@
       <c r="G41" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H41" s="86" t="s">
+      <c r="H41" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="I41" s="87"/>
-      <c r="J41" s="87"/>
-      <c r="K41" s="87"/>
-      <c r="L41" s="87"/>
-      <c r="M41" s="87"/>
-      <c r="N41" s="87"/>
-      <c r="O41" s="87"/>
-      <c r="P41" s="87"/>
-      <c r="Q41" s="87"/>
-      <c r="R41" s="87"/>
-      <c r="S41" s="87"/>
-      <c r="T41" s="88"/>
+      <c r="I41" s="34"/>
+      <c r="J41" s="34"/>
+      <c r="K41" s="34"/>
+      <c r="L41" s="34"/>
+      <c r="M41" s="34"/>
+      <c r="N41" s="34"/>
+      <c r="O41" s="34"/>
+      <c r="P41" s="34"/>
+      <c r="Q41" s="34"/>
+      <c r="R41" s="34"/>
+      <c r="S41" s="34"/>
+      <c r="T41" s="35"/>
     </row>
     <row r="42" spans="2:20" ht="17.25" thickBot="1">
       <c r="B42" s="11"/>
@@ -3086,55 +3469,22 @@
       <c r="E42" s="15"/>
       <c r="F42" s="15"/>
       <c r="G42" s="12"/>
-      <c r="H42" s="89"/>
-      <c r="I42" s="90"/>
-      <c r="J42" s="90"/>
-      <c r="K42" s="90"/>
-      <c r="L42" s="90"/>
-      <c r="M42" s="90"/>
-      <c r="N42" s="90"/>
-      <c r="O42" s="90"/>
-      <c r="P42" s="90"/>
-      <c r="Q42" s="90"/>
-      <c r="R42" s="90"/>
-      <c r="S42" s="90"/>
-      <c r="T42" s="91"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="37"/>
+      <c r="K42" s="37"/>
+      <c r="L42" s="37"/>
+      <c r="M42" s="37"/>
+      <c r="N42" s="37"/>
+      <c r="O42" s="37"/>
+      <c r="P42" s="37"/>
+      <c r="Q42" s="37"/>
+      <c r="R42" s="37"/>
+      <c r="S42" s="37"/>
+      <c r="T42" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="H39:T39"/>
-    <mergeCell ref="H40:T40"/>
-    <mergeCell ref="H41:T41"/>
-    <mergeCell ref="H42:T42"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="K34:N34"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="K36:N36"/>
-    <mergeCell ref="K37:N37"/>
-    <mergeCell ref="K25:N25"/>
-    <mergeCell ref="K26:N26"/>
-    <mergeCell ref="H38:T38"/>
-    <mergeCell ref="K27:N27"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="K29:N29"/>
-    <mergeCell ref="K30:N30"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="K32:N32"/>
-    <mergeCell ref="O19:S19"/>
-    <mergeCell ref="T19:T20"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="K24:N24"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="B19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G15:I15"/>
     <mergeCell ref="J19:J20"/>
     <mergeCell ref="K19:N20"/>
     <mergeCell ref="B2:H3"/>
@@ -3151,17 +3501,50 @@
     <mergeCell ref="G16:I16"/>
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="H7:I7"/>
+    <mergeCell ref="B19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G15:I15"/>
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="H11:I11"/>
+    <mergeCell ref="O19:S19"/>
+    <mergeCell ref="T19:T20"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="H38:T38"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="K29:N29"/>
+    <mergeCell ref="K30:N30"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="H39:T39"/>
+    <mergeCell ref="H40:T40"/>
+    <mergeCell ref="H41:T41"/>
+    <mergeCell ref="H42:T42"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="K36:N36"/>
+    <mergeCell ref="K37:N37"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B21:G42 G7:G13 H9:H10">
-    <cfRule type="cellIs" dxfId="14" priority="4" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="45" priority="4" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K21:T37">
-    <cfRule type="cellIs" dxfId="13" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="3" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3200,46 +3583,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="9" customHeight="1">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="35"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="73"/>
     </row>
     <row r="3" spans="2:11" ht="9" customHeight="1">
-      <c r="B3" s="36"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="38"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="76"/>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="88" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="68" t="s">
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="69"/>
+      <c r="H4" s="61"/>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="88" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
       <c r="G5" s="31">
         <v>44039</v>
       </c>
@@ -3249,104 +3632,104 @@
     </row>
     <row r="6" spans="2:11" ht="9" customHeight="1"/>
     <row r="7" spans="2:11">
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="45"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="81"/>
       <c r="G7" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="55"/>
+      <c r="H7" s="90"/>
+      <c r="I7" s="91"/>
       <c r="K7" s="29" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="46"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="48"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="84"/>
       <c r="G8" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="56"/>
-      <c r="I8" s="57"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="65"/>
       <c r="K8" s="29" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="9" spans="2:11">
-      <c r="B9" s="46"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="70" t="s">
+      <c r="B9" s="82"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="H9" s="39" t="s">
+      <c r="H9" s="77" t="s">
         <v>67</v>
       </c>
-      <c r="I9" s="39"/>
+      <c r="I9" s="77"/>
       <c r="K9" s="29" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="46"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="39" t="s">
+      <c r="B10" s="82"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="I10" s="39"/>
+      <c r="I10" s="77"/>
       <c r="K10" s="29" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="11" spans="2:11">
-      <c r="B11" s="46"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="48"/>
+      <c r="B11" s="82"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="84"/>
       <c r="G11" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="H11" s="56"/>
-      <c r="I11" s="57"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="65"/>
     </row>
     <row r="12" spans="2:11">
-      <c r="B12" s="46"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="48"/>
+      <c r="B12" s="82"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="83"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="84"/>
       <c r="G12" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="H12" s="56" t="s">
+      <c r="H12" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="I12" s="57"/>
+      <c r="I12" s="65"/>
       <c r="K12" s="29" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="13" spans="2:11">
-      <c r="B13" s="49"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="51"/>
+      <c r="B13" s="85"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="87"/>
       <c r="G13" s="30" t="s">
         <v>47</v>
       </c>
@@ -3356,115 +3739,115 @@
       <c r="I13" s="93"/>
     </row>
     <row r="14" spans="2:11">
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="79" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="72" t="s">
+      <c r="C14" s="80"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="H14" s="73"/>
-      <c r="I14" s="74"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="68"/>
     </row>
     <row r="15" spans="2:11">
-      <c r="B15" s="49"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="72" t="s">
+      <c r="B15" s="85"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="87"/>
+      <c r="G15" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="H15" s="73"/>
-      <c r="I15" s="74"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="68"/>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="53" t="s">
+      <c r="C16" s="78"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="H16" s="53" t="s">
+      <c r="H16" s="89" t="s">
         <v>51</v>
       </c>
-      <c r="I16" s="53" t="s">
+      <c r="I16" s="89" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="17" spans="2:20">
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="53"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="89"/>
+      <c r="H17" s="89"/>
+      <c r="I17" s="89"/>
     </row>
     <row r="18" spans="2:20" ht="6.75" customHeight="1" thickBot="1"/>
     <row r="19" spans="2:20">
-      <c r="B19" s="61" t="s">
+      <c r="B19" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="40" t="s">
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="G19" s="67" t="s">
+      <c r="G19" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="H19" s="40" t="s">
+      <c r="H19" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="I19" s="40" t="s">
+      <c r="I19" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="J19" s="40" t="s">
+      <c r="J19" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="K19" s="75" t="s">
+      <c r="K19" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="L19" s="62"/>
-      <c r="M19" s="62"/>
-      <c r="N19" s="63"/>
-      <c r="O19" s="77" t="s">
+      <c r="L19" s="52"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="53"/>
+      <c r="O19" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="P19" s="78"/>
-      <c r="Q19" s="78"/>
-      <c r="R19" s="78"/>
-      <c r="S19" s="79"/>
-      <c r="T19" s="80" t="s">
+      <c r="P19" s="43"/>
+      <c r="Q19" s="43"/>
+      <c r="R19" s="43"/>
+      <c r="S19" s="44"/>
+      <c r="T19" s="45" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="20" spans="2:20" ht="17.25" thickBot="1">
-      <c r="B20" s="64"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="76"/>
-      <c r="L20" s="65"/>
-      <c r="M20" s="65"/>
-      <c r="N20" s="66"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="70"/>
+      <c r="L20" s="55"/>
+      <c r="M20" s="55"/>
+      <c r="N20" s="56"/>
       <c r="O20" s="21" t="s">
         <v>4</v>
       </c>
@@ -3480,7 +3863,7 @@
       <c r="S20" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="T20" s="81"/>
+      <c r="T20" s="46"/>
     </row>
     <row r="21" spans="2:20">
       <c r="B21" s="2">
@@ -3510,12 +3893,12 @@
       <c r="J21" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K21" s="82" t="s">
+      <c r="K21" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="L21" s="83"/>
-      <c r="M21" s="83"/>
-      <c r="N21" s="84"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="49"/>
       <c r="O21" s="16" t="s">
         <v>23</v>
       </c>
@@ -3547,12 +3930,12 @@
       <c r="J22" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="K22" s="58" t="s">
+      <c r="K22" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="L22" s="59"/>
-      <c r="M22" s="59"/>
-      <c r="N22" s="60"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="41"/>
       <c r="O22" s="17"/>
       <c r="P22" s="18"/>
       <c r="Q22" s="18"/>
@@ -3574,12 +3957,12 @@
       <c r="J23" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="K23" s="85" t="s">
+      <c r="K23" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="L23" s="59"/>
-      <c r="M23" s="59"/>
-      <c r="N23" s="60"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="41"/>
       <c r="O23" s="18"/>
       <c r="P23" s="18"/>
       <c r="Q23" s="18"/>
@@ -3599,10 +3982,10 @@
       <c r="J24" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="K24" s="85"/>
-      <c r="L24" s="59"/>
-      <c r="M24" s="59"/>
-      <c r="N24" s="60"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="41"/>
       <c r="O24" s="18"/>
       <c r="P24" s="18"/>
       <c r="Q24" s="18"/>
@@ -3628,10 +4011,10 @@
       <c r="J25" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="K25" s="85"/>
-      <c r="L25" s="59"/>
-      <c r="M25" s="59"/>
-      <c r="N25" s="60"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="41"/>
       <c r="O25" s="18"/>
       <c r="P25" s="18"/>
       <c r="Q25" s="18"/>
@@ -3657,10 +4040,10 @@
       <c r="J26" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="K26" s="85"/>
-      <c r="L26" s="59"/>
-      <c r="M26" s="59"/>
-      <c r="N26" s="60"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="41"/>
       <c r="O26" s="18"/>
       <c r="P26" s="18"/>
       <c r="Q26" s="18"/>
@@ -3680,10 +4063,10 @@
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
       <c r="J27" s="9"/>
-      <c r="K27" s="85"/>
-      <c r="L27" s="59"/>
-      <c r="M27" s="59"/>
-      <c r="N27" s="60"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="41"/>
       <c r="O27" s="18"/>
       <c r="P27" s="18"/>
       <c r="Q27" s="18"/>
@@ -3701,10 +4084,10 @@
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
       <c r="J28" s="9"/>
-      <c r="K28" s="85"/>
-      <c r="L28" s="59"/>
-      <c r="M28" s="59"/>
-      <c r="N28" s="60"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="41"/>
       <c r="O28" s="18"/>
       <c r="P28" s="18"/>
       <c r="Q28" s="18"/>
@@ -3722,10 +4105,10 @@
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
       <c r="J29" s="9"/>
-      <c r="K29" s="85"/>
-      <c r="L29" s="59"/>
-      <c r="M29" s="59"/>
-      <c r="N29" s="60"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="40"/>
+      <c r="N29" s="41"/>
       <c r="O29" s="18"/>
       <c r="P29" s="18"/>
       <c r="Q29" s="18"/>
@@ -3743,10 +4126,10 @@
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
       <c r="J30" s="9"/>
-      <c r="K30" s="85"/>
-      <c r="L30" s="59"/>
-      <c r="M30" s="59"/>
-      <c r="N30" s="60"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="40"/>
+      <c r="N30" s="41"/>
       <c r="O30" s="18"/>
       <c r="P30" s="18"/>
       <c r="Q30" s="18"/>
@@ -3768,10 +4151,10 @@
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
       <c r="J31" s="9"/>
-      <c r="K31" s="85"/>
-      <c r="L31" s="59"/>
-      <c r="M31" s="59"/>
-      <c r="N31" s="60"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="40"/>
+      <c r="N31" s="41"/>
       <c r="O31" s="18"/>
       <c r="P31" s="18"/>
       <c r="Q31" s="18"/>
@@ -3793,10 +4176,10 @@
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="9"/>
-      <c r="K32" s="85"/>
-      <c r="L32" s="59"/>
-      <c r="M32" s="59"/>
-      <c r="N32" s="60"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="40"/>
+      <c r="N32" s="41"/>
       <c r="O32" s="18"/>
       <c r="P32" s="18"/>
       <c r="Q32" s="18"/>
@@ -3818,10 +4201,10 @@
         <v>88</v>
       </c>
       <c r="J33" s="9"/>
-      <c r="K33" s="85"/>
-      <c r="L33" s="59"/>
-      <c r="M33" s="59"/>
-      <c r="N33" s="60"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="40"/>
+      <c r="N33" s="41"/>
       <c r="O33" s="18"/>
       <c r="P33" s="18"/>
       <c r="Q33" s="18"/>
@@ -3843,10 +4226,10 @@
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="9"/>
-      <c r="K34" s="85"/>
-      <c r="L34" s="59"/>
-      <c r="M34" s="59"/>
-      <c r="N34" s="60"/>
+      <c r="K34" s="39"/>
+      <c r="L34" s="40"/>
+      <c r="M34" s="40"/>
+      <c r="N34" s="41"/>
       <c r="O34" s="18"/>
       <c r="P34" s="18"/>
       <c r="Q34" s="18"/>
@@ -3864,10 +4247,10 @@
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
       <c r="J35" s="9"/>
-      <c r="K35" s="85"/>
-      <c r="L35" s="59"/>
-      <c r="M35" s="59"/>
-      <c r="N35" s="60"/>
+      <c r="K35" s="39"/>
+      <c r="L35" s="40"/>
+      <c r="M35" s="40"/>
+      <c r="N35" s="41"/>
       <c r="O35" s="18"/>
       <c r="P35" s="18"/>
       <c r="Q35" s="18"/>
@@ -3885,10 +4268,10 @@
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
       <c r="J36" s="9"/>
-      <c r="K36" s="85"/>
-      <c r="L36" s="59"/>
-      <c r="M36" s="59"/>
-      <c r="N36" s="60"/>
+      <c r="K36" s="39"/>
+      <c r="L36" s="40"/>
+      <c r="M36" s="40"/>
+      <c r="N36" s="41"/>
       <c r="O36" s="18"/>
       <c r="P36" s="18"/>
       <c r="Q36" s="18"/>
@@ -3906,10 +4289,10 @@
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
       <c r="J37" s="9"/>
-      <c r="K37" s="85"/>
-      <c r="L37" s="59"/>
-      <c r="M37" s="59"/>
-      <c r="N37" s="60"/>
+      <c r="K37" s="39"/>
+      <c r="L37" s="40"/>
+      <c r="M37" s="40"/>
+      <c r="N37" s="41"/>
       <c r="O37" s="18"/>
       <c r="P37" s="18"/>
       <c r="Q37" s="18"/>
@@ -3928,21 +4311,21 @@
       <c r="G38" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="H38" s="86" t="s">
+      <c r="H38" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="I38" s="87"/>
-      <c r="J38" s="87"/>
-      <c r="K38" s="87"/>
-      <c r="L38" s="87"/>
-      <c r="M38" s="87"/>
-      <c r="N38" s="87"/>
-      <c r="O38" s="87"/>
-      <c r="P38" s="87"/>
-      <c r="Q38" s="87"/>
-      <c r="R38" s="87"/>
-      <c r="S38" s="87"/>
-      <c r="T38" s="88"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="34"/>
+      <c r="M38" s="34"/>
+      <c r="N38" s="34"/>
+      <c r="O38" s="34"/>
+      <c r="P38" s="34"/>
+      <c r="Q38" s="34"/>
+      <c r="R38" s="34"/>
+      <c r="S38" s="34"/>
+      <c r="T38" s="35"/>
     </row>
     <row r="39" spans="2:20">
       <c r="B39" s="6"/>
@@ -3953,21 +4336,21 @@
       <c r="G39" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H39" s="86" t="s">
+      <c r="H39" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="I39" s="87"/>
-      <c r="J39" s="87"/>
-      <c r="K39" s="87"/>
-      <c r="L39" s="87"/>
-      <c r="M39" s="87"/>
-      <c r="N39" s="87"/>
-      <c r="O39" s="87"/>
-      <c r="P39" s="87"/>
-      <c r="Q39" s="87"/>
-      <c r="R39" s="87"/>
-      <c r="S39" s="87"/>
-      <c r="T39" s="88"/>
+      <c r="I39" s="34"/>
+      <c r="J39" s="34"/>
+      <c r="K39" s="34"/>
+      <c r="L39" s="34"/>
+      <c r="M39" s="34"/>
+      <c r="N39" s="34"/>
+      <c r="O39" s="34"/>
+      <c r="P39" s="34"/>
+      <c r="Q39" s="34"/>
+      <c r="R39" s="34"/>
+      <c r="S39" s="34"/>
+      <c r="T39" s="35"/>
     </row>
     <row r="40" spans="2:20">
       <c r="B40" s="6"/>
@@ -3978,21 +4361,21 @@
       <c r="G40" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H40" s="86" t="s">
+      <c r="H40" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="I40" s="87"/>
-      <c r="J40" s="87"/>
-      <c r="K40" s="87"/>
-      <c r="L40" s="87"/>
-      <c r="M40" s="87"/>
-      <c r="N40" s="87"/>
-      <c r="O40" s="87"/>
-      <c r="P40" s="87"/>
-      <c r="Q40" s="87"/>
-      <c r="R40" s="87"/>
-      <c r="S40" s="87"/>
-      <c r="T40" s="88"/>
+      <c r="I40" s="34"/>
+      <c r="J40" s="34"/>
+      <c r="K40" s="34"/>
+      <c r="L40" s="34"/>
+      <c r="M40" s="34"/>
+      <c r="N40" s="34"/>
+      <c r="O40" s="34"/>
+      <c r="P40" s="34"/>
+      <c r="Q40" s="34"/>
+      <c r="R40" s="34"/>
+      <c r="S40" s="34"/>
+      <c r="T40" s="35"/>
     </row>
     <row r="41" spans="2:20">
       <c r="B41" s="6"/>
@@ -4003,21 +4386,21 @@
       <c r="G41" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H41" s="86" t="s">
+      <c r="H41" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="I41" s="87"/>
-      <c r="J41" s="87"/>
-      <c r="K41" s="87"/>
-      <c r="L41" s="87"/>
-      <c r="M41" s="87"/>
-      <c r="N41" s="87"/>
-      <c r="O41" s="87"/>
-      <c r="P41" s="87"/>
-      <c r="Q41" s="87"/>
-      <c r="R41" s="87"/>
-      <c r="S41" s="87"/>
-      <c r="T41" s="88"/>
+      <c r="I41" s="34"/>
+      <c r="J41" s="34"/>
+      <c r="K41" s="34"/>
+      <c r="L41" s="34"/>
+      <c r="M41" s="34"/>
+      <c r="N41" s="34"/>
+      <c r="O41" s="34"/>
+      <c r="P41" s="34"/>
+      <c r="Q41" s="34"/>
+      <c r="R41" s="34"/>
+      <c r="S41" s="34"/>
+      <c r="T41" s="35"/>
     </row>
     <row r="42" spans="2:20" ht="17.25" thickBot="1">
       <c r="B42" s="11"/>
@@ -4026,19 +4409,1852 @@
       <c r="E42" s="15"/>
       <c r="F42" s="15"/>
       <c r="G42" s="12"/>
-      <c r="H42" s="89"/>
-      <c r="I42" s="90"/>
-      <c r="J42" s="90"/>
-      <c r="K42" s="90"/>
-      <c r="L42" s="90"/>
-      <c r="M42" s="90"/>
-      <c r="N42" s="90"/>
-      <c r="O42" s="90"/>
-      <c r="P42" s="90"/>
-      <c r="Q42" s="90"/>
-      <c r="R42" s="90"/>
-      <c r="S42" s="90"/>
-      <c r="T42" s="91"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="37"/>
+      <c r="K42" s="37"/>
+      <c r="L42" s="37"/>
+      <c r="M42" s="37"/>
+      <c r="N42" s="37"/>
+      <c r="O42" s="37"/>
+      <c r="P42" s="37"/>
+      <c r="Q42" s="37"/>
+      <c r="R42" s="37"/>
+      <c r="S42" s="37"/>
+      <c r="T42" s="38"/>
+    </row>
+  </sheetData>
+  <mergeCells count="51">
+    <mergeCell ref="B2:H3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B7:F13"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="B14:F15"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="B19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:N20"/>
+    <mergeCell ref="O19:S19"/>
+    <mergeCell ref="T19:T20"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="K29:N29"/>
+    <mergeCell ref="K30:N30"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="H41:T41"/>
+    <mergeCell ref="H42:T42"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="K36:N36"/>
+    <mergeCell ref="K37:N37"/>
+    <mergeCell ref="H38:T38"/>
+    <mergeCell ref="H39:T39"/>
+    <mergeCell ref="H40:T40"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="B21:G23 G7:G13 H9:H10 B34:G42 B33:F33 B24:F24 B25:G32">
+    <cfRule type="cellIs" dxfId="43" priority="4" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K21:T37">
+    <cfRule type="cellIs" dxfId="42" priority="3" stopIfTrue="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G33">
+    <cfRule type="cellIs" dxfId="41" priority="2" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24">
+    <cfRule type="cellIs" dxfId="40" priority="1" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.55118110236220474" right="0.55118110236220474" top="0.59055118110236227" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:T42"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="2.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="2" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.21875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="37.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8" style="1" customWidth="1"/>
+    <col min="11" max="14" width="2.77734375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="6.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" ht="9" customHeight="1">
+      <c r="B2" s="71" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="73"/>
+    </row>
+    <row r="3" spans="2:11" ht="9" customHeight="1">
+      <c r="B3" s="74"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="76"/>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4" s="88" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="61"/>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" s="88" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="31">
+        <v>44119</v>
+      </c>
+      <c r="H5" s="32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="9" customHeight="1"/>
+    <row r="7" spans="2:11">
+      <c r="B7" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="94"/>
+      <c r="I7" s="95"/>
+      <c r="K7" s="29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8" s="82"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="92" t="s">
+        <v>91</v>
+      </c>
+      <c r="I8" s="93"/>
+      <c r="K8" s="29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9" s="82"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="96" t="s">
+        <v>92</v>
+      </c>
+      <c r="I9" s="96"/>
+      <c r="K9" s="29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10" s="82"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="96" t="s">
+        <v>93</v>
+      </c>
+      <c r="I10" s="96"/>
+      <c r="K10" s="29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11" s="82"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="84"/>
+      <c r="G11" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="92" t="s">
+        <v>94</v>
+      </c>
+      <c r="I11" s="93"/>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="B12" s="82"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="83"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="84"/>
+      <c r="G12" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="92"/>
+      <c r="I12" s="93"/>
+      <c r="K12" s="29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="B13" s="85"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" s="92" t="s">
+        <v>95</v>
+      </c>
+      <c r="I13" s="93"/>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="B14" s="79" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="80"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="66" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" s="67"/>
+      <c r="I14" s="68"/>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="B15" s="85"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="87"/>
+      <c r="G15" s="66" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" s="67"/>
+      <c r="I15" s="68"/>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="B16" s="78" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="78"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="89" t="s">
+        <v>89</v>
+      </c>
+      <c r="H16" s="89" t="s">
+        <v>51</v>
+      </c>
+      <c r="I16" s="89" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20">
+      <c r="B17" s="78" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="78"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="89"/>
+      <c r="H17" s="89"/>
+      <c r="I17" s="89"/>
+    </row>
+    <row r="18" spans="2:20" ht="6.75" customHeight="1" thickBot="1"/>
+    <row r="19" spans="2:20">
+      <c r="B19" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="G19" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="I19" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="J19" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="K19" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="L19" s="52"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="53"/>
+      <c r="O19" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="P19" s="43"/>
+      <c r="Q19" s="43"/>
+      <c r="R19" s="43"/>
+      <c r="S19" s="44"/>
+      <c r="T19" s="45" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20" ht="17.25" thickBot="1">
+      <c r="B20" s="54"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="70"/>
+      <c r="L20" s="55"/>
+      <c r="M20" s="55"/>
+      <c r="N20" s="56"/>
+      <c r="O20" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="P20" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q20" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="R20" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="S20" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="T20" s="46"/>
+    </row>
+    <row r="21" spans="2:20">
+      <c r="B21" s="2">
+        <v>1</v>
+      </c>
+      <c r="C21" s="13">
+        <v>1</v>
+      </c>
+      <c r="D21" s="13">
+        <v>1</v>
+      </c>
+      <c r="E21" s="13">
+        <v>1</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="49"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="16"/>
+      <c r="S21" s="16"/>
+      <c r="T21" s="19"/>
+    </row>
+    <row r="22" spans="2:20" ht="16.5" customHeight="1">
+      <c r="B22" s="6"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="I22" s="8"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="41"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="18"/>
+      <c r="S22" s="18"/>
+      <c r="T22" s="20"/>
+    </row>
+    <row r="23" spans="2:20">
+      <c r="B23" s="6"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="41"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="18"/>
+      <c r="T23" s="10"/>
+    </row>
+    <row r="24" spans="2:20">
+      <c r="B24" s="6"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="I24" s="8"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="41"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="18"/>
+      <c r="T24" s="10"/>
+    </row>
+    <row r="25" spans="2:20">
+      <c r="B25" s="6"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="I25" s="8"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="41"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="18"/>
+      <c r="R25" s="18"/>
+      <c r="S25" s="18"/>
+      <c r="T25" s="10"/>
+    </row>
+    <row r="26" spans="2:20">
+      <c r="B26" s="6"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="41"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="18"/>
+      <c r="R26" s="18"/>
+      <c r="S26" s="18"/>
+      <c r="T26" s="10"/>
+    </row>
+    <row r="27" spans="2:20">
+      <c r="B27" s="6"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="41"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="18"/>
+      <c r="R27" s="18"/>
+      <c r="S27" s="18"/>
+      <c r="T27" s="10"/>
+    </row>
+    <row r="28" spans="2:20">
+      <c r="B28" s="6"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="41"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="18"/>
+      <c r="R28" s="18"/>
+      <c r="S28" s="18"/>
+      <c r="T28" s="10"/>
+    </row>
+    <row r="29" spans="2:20">
+      <c r="B29" s="6"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="40"/>
+      <c r="N29" s="41"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="18"/>
+      <c r="S29" s="18"/>
+      <c r="T29" s="10"/>
+    </row>
+    <row r="30" spans="2:20">
+      <c r="B30" s="6"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="40"/>
+      <c r="N30" s="41"/>
+      <c r="O30" s="18"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="18"/>
+      <c r="R30" s="18"/>
+      <c r="S30" s="18"/>
+      <c r="T30" s="10"/>
+    </row>
+    <row r="31" spans="2:20">
+      <c r="B31" s="6"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="40"/>
+      <c r="N31" s="41"/>
+      <c r="O31" s="18"/>
+      <c r="P31" s="18"/>
+      <c r="Q31" s="18"/>
+      <c r="R31" s="18"/>
+      <c r="S31" s="18"/>
+      <c r="T31" s="10"/>
+    </row>
+    <row r="32" spans="2:20">
+      <c r="B32" s="6"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="40"/>
+      <c r="N32" s="41"/>
+      <c r="O32" s="18"/>
+      <c r="P32" s="18"/>
+      <c r="Q32" s="18"/>
+      <c r="R32" s="18"/>
+      <c r="S32" s="18"/>
+      <c r="T32" s="10"/>
+    </row>
+    <row r="33" spans="2:20">
+      <c r="B33" s="6"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="40"/>
+      <c r="N33" s="41"/>
+      <c r="O33" s="18"/>
+      <c r="P33" s="18"/>
+      <c r="Q33" s="18"/>
+      <c r="R33" s="18"/>
+      <c r="S33" s="18"/>
+      <c r="T33" s="10"/>
+    </row>
+    <row r="34" spans="2:20">
+      <c r="B34" s="6"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="39"/>
+      <c r="L34" s="40"/>
+      <c r="M34" s="40"/>
+      <c r="N34" s="41"/>
+      <c r="O34" s="18"/>
+      <c r="P34" s="18"/>
+      <c r="Q34" s="18"/>
+      <c r="R34" s="18"/>
+      <c r="S34" s="18"/>
+      <c r="T34" s="10"/>
+    </row>
+    <row r="35" spans="2:20">
+      <c r="B35" s="6"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="39"/>
+      <c r="L35" s="40"/>
+      <c r="M35" s="40"/>
+      <c r="N35" s="41"/>
+      <c r="O35" s="18"/>
+      <c r="P35" s="18"/>
+      <c r="Q35" s="18"/>
+      <c r="R35" s="18"/>
+      <c r="S35" s="18"/>
+      <c r="T35" s="10"/>
+    </row>
+    <row r="36" spans="2:20">
+      <c r="B36" s="6"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="39"/>
+      <c r="L36" s="40"/>
+      <c r="M36" s="40"/>
+      <c r="N36" s="41"/>
+      <c r="O36" s="18"/>
+      <c r="P36" s="18"/>
+      <c r="Q36" s="18"/>
+      <c r="R36" s="18"/>
+      <c r="S36" s="18"/>
+      <c r="T36" s="10"/>
+    </row>
+    <row r="37" spans="2:20">
+      <c r="B37" s="23"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="39"/>
+      <c r="L37" s="40"/>
+      <c r="M37" s="40"/>
+      <c r="N37" s="41"/>
+      <c r="O37" s="18"/>
+      <c r="P37" s="18"/>
+      <c r="Q37" s="18"/>
+      <c r="R37" s="18"/>
+      <c r="S37" s="18"/>
+      <c r="T37" s="10"/>
+    </row>
+    <row r="38" spans="2:20">
+      <c r="B38" s="26"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="G38" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="H38" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="I38" s="34"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="34"/>
+      <c r="M38" s="34"/>
+      <c r="N38" s="34"/>
+      <c r="O38" s="34"/>
+      <c r="P38" s="34"/>
+      <c r="Q38" s="34"/>
+      <c r="R38" s="34"/>
+      <c r="S38" s="34"/>
+      <c r="T38" s="35"/>
+    </row>
+    <row r="39" spans="2:20">
+      <c r="B39" s="6"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H39" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="I39" s="34"/>
+      <c r="J39" s="34"/>
+      <c r="K39" s="34"/>
+      <c r="L39" s="34"/>
+      <c r="M39" s="34"/>
+      <c r="N39" s="34"/>
+      <c r="O39" s="34"/>
+      <c r="P39" s="34"/>
+      <c r="Q39" s="34"/>
+      <c r="R39" s="34"/>
+      <c r="S39" s="34"/>
+      <c r="T39" s="35"/>
+    </row>
+    <row r="40" spans="2:20">
+      <c r="B40" s="6"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H40" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="I40" s="34"/>
+      <c r="J40" s="34"/>
+      <c r="K40" s="34"/>
+      <c r="L40" s="34"/>
+      <c r="M40" s="34"/>
+      <c r="N40" s="34"/>
+      <c r="O40" s="34"/>
+      <c r="P40" s="34"/>
+      <c r="Q40" s="34"/>
+      <c r="R40" s="34"/>
+      <c r="S40" s="34"/>
+      <c r="T40" s="35"/>
+    </row>
+    <row r="41" spans="2:20">
+      <c r="B41" s="6"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H41" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="I41" s="34"/>
+      <c r="J41" s="34"/>
+      <c r="K41" s="34"/>
+      <c r="L41" s="34"/>
+      <c r="M41" s="34"/>
+      <c r="N41" s="34"/>
+      <c r="O41" s="34"/>
+      <c r="P41" s="34"/>
+      <c r="Q41" s="34"/>
+      <c r="R41" s="34"/>
+      <c r="S41" s="34"/>
+      <c r="T41" s="35"/>
+    </row>
+    <row r="42" spans="2:20" ht="17.25" thickBot="1">
+      <c r="B42" s="11"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="37"/>
+      <c r="K42" s="37"/>
+      <c r="L42" s="37"/>
+      <c r="M42" s="37"/>
+      <c r="N42" s="37"/>
+      <c r="O42" s="37"/>
+      <c r="P42" s="37"/>
+      <c r="Q42" s="37"/>
+      <c r="R42" s="37"/>
+      <c r="S42" s="37"/>
+      <c r="T42" s="38"/>
+    </row>
+  </sheetData>
+  <mergeCells count="51">
+    <mergeCell ref="B2:H3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B7:F13"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="B14:F15"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="B19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:N20"/>
+    <mergeCell ref="O19:S19"/>
+    <mergeCell ref="T19:T20"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="K29:N29"/>
+    <mergeCell ref="K30:N30"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="H41:T41"/>
+    <mergeCell ref="H42:T42"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="K36:N36"/>
+    <mergeCell ref="K37:N37"/>
+    <mergeCell ref="H38:T38"/>
+    <mergeCell ref="H39:T39"/>
+    <mergeCell ref="H40:T40"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="B21:G23 G7:G13 H9:H10 B34:G42 B33:F33 B24:F24 B25:G25 B27:G32 B26:F26">
+    <cfRule type="cellIs" dxfId="39" priority="5" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K21:T37">
+    <cfRule type="cellIs" dxfId="38" priority="4" stopIfTrue="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G33">
+    <cfRule type="cellIs" dxfId="37" priority="3" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24">
+    <cfRule type="cellIs" dxfId="36" priority="2" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G26">
+    <cfRule type="cellIs" dxfId="35" priority="1" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.55118110236220474" right="0.55118110236220474" top="0.59055118110236227" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:T42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="2.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="2" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.21875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="37.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8" style="1" customWidth="1"/>
+    <col min="11" max="14" width="2.77734375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="6.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" ht="9" customHeight="1">
+      <c r="B2" s="71" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="73"/>
+    </row>
+    <row r="3" spans="2:11" ht="9" customHeight="1">
+      <c r="B3" s="74"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="76"/>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4" s="88" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="61"/>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" s="88" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="31">
+        <v>44123</v>
+      </c>
+      <c r="H5" s="32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="9" customHeight="1"/>
+    <row r="7" spans="2:11">
+      <c r="B7" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="94" t="s">
+        <v>104</v>
+      </c>
+      <c r="I7" s="95"/>
+      <c r="K7" s="29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8" s="82"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="92" t="s">
+        <v>105</v>
+      </c>
+      <c r="I8" s="93"/>
+      <c r="K8" s="29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9" s="82"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="96" t="s">
+        <v>106</v>
+      </c>
+      <c r="I9" s="96"/>
+      <c r="K9" s="29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10" s="82"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="96" t="s">
+        <v>107</v>
+      </c>
+      <c r="I10" s="96"/>
+      <c r="K10" s="29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11" s="82"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="84"/>
+      <c r="G11" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="92"/>
+      <c r="I11" s="93"/>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="B12" s="82"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="83"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="84"/>
+      <c r="G12" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="92"/>
+      <c r="I12" s="93"/>
+      <c r="K12" s="29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="B13" s="85"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" s="92" t="s">
+        <v>95</v>
+      </c>
+      <c r="I13" s="93"/>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="B14" s="79" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="80"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="66" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" s="67"/>
+      <c r="I14" s="68"/>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="B15" s="85"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="87"/>
+      <c r="G15" s="66" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" s="67"/>
+      <c r="I15" s="68"/>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="B16" s="78" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="78"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="89" t="s">
+        <v>89</v>
+      </c>
+      <c r="H16" s="89" t="s">
+        <v>51</v>
+      </c>
+      <c r="I16" s="89" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20">
+      <c r="B17" s="78" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="78"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="89"/>
+      <c r="H17" s="89"/>
+      <c r="I17" s="89"/>
+    </row>
+    <row r="18" spans="2:20" ht="6.75" customHeight="1" thickBot="1"/>
+    <row r="19" spans="2:20">
+      <c r="B19" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="G19" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="I19" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="J19" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="K19" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="L19" s="52"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="53"/>
+      <c r="O19" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="P19" s="43"/>
+      <c r="Q19" s="43"/>
+      <c r="R19" s="43"/>
+      <c r="S19" s="44"/>
+      <c r="T19" s="45" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20" ht="17.25" thickBot="1">
+      <c r="B20" s="54"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="70"/>
+      <c r="L20" s="55"/>
+      <c r="M20" s="55"/>
+      <c r="N20" s="56"/>
+      <c r="O20" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="P20" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q20" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="R20" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="S20" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="T20" s="46"/>
+    </row>
+    <row r="21" spans="2:20">
+      <c r="B21" s="2">
+        <v>1</v>
+      </c>
+      <c r="C21" s="13">
+        <v>1</v>
+      </c>
+      <c r="D21" s="13">
+        <v>1</v>
+      </c>
+      <c r="E21" s="13">
+        <v>1</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="J21" s="5"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="49"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="16"/>
+      <c r="S21" s="16"/>
+      <c r="T21" s="19"/>
+    </row>
+    <row r="22" spans="2:20" ht="16.5" customHeight="1">
+      <c r="B22" s="6"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="J22" s="9"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="41"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="18"/>
+      <c r="S22" s="18"/>
+      <c r="T22" s="20"/>
+    </row>
+    <row r="23" spans="2:20">
+      <c r="B23" s="6"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="41"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="18"/>
+      <c r="T23" s="10"/>
+    </row>
+    <row r="24" spans="2:20">
+      <c r="B24" s="6"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="J24" s="9"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="41"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="18"/>
+      <c r="T24" s="10"/>
+    </row>
+    <row r="25" spans="2:20">
+      <c r="B25" s="6"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="J25" s="9"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="41"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="18"/>
+      <c r="R25" s="18"/>
+      <c r="S25" s="18"/>
+      <c r="T25" s="10"/>
+    </row>
+    <row r="26" spans="2:20">
+      <c r="B26" s="6"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="J26" s="9"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="41"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="18"/>
+      <c r="R26" s="18"/>
+      <c r="S26" s="18"/>
+      <c r="T26" s="10"/>
+    </row>
+    <row r="27" spans="2:20">
+      <c r="B27" s="6"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="J27" s="9"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="41"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="18"/>
+      <c r="R27" s="18"/>
+      <c r="S27" s="18"/>
+      <c r="T27" s="10"/>
+    </row>
+    <row r="28" spans="2:20">
+      <c r="B28" s="6"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="J28" s="9"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="41"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="18"/>
+      <c r="R28" s="18"/>
+      <c r="S28" s="18"/>
+      <c r="T28" s="10"/>
+    </row>
+    <row r="29" spans="2:20">
+      <c r="B29" s="6"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="J29" s="9"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="40"/>
+      <c r="N29" s="41"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="18"/>
+      <c r="S29" s="18"/>
+      <c r="T29" s="10"/>
+    </row>
+    <row r="30" spans="2:20">
+      <c r="B30" s="6"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="J30" s="9"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="40"/>
+      <c r="N30" s="41"/>
+      <c r="O30" s="18"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="18"/>
+      <c r="R30" s="18"/>
+      <c r="S30" s="18"/>
+      <c r="T30" s="10"/>
+    </row>
+    <row r="31" spans="2:20">
+      <c r="B31" s="6"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="J31" s="9"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="40"/>
+      <c r="N31" s="41"/>
+      <c r="O31" s="18"/>
+      <c r="P31" s="18"/>
+      <c r="Q31" s="18"/>
+      <c r="R31" s="18"/>
+      <c r="S31" s="18"/>
+      <c r="T31" s="10"/>
+    </row>
+    <row r="32" spans="2:20">
+      <c r="B32" s="6"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="J32" s="9"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="40"/>
+      <c r="N32" s="41"/>
+      <c r="O32" s="18"/>
+      <c r="P32" s="18"/>
+      <c r="Q32" s="18"/>
+      <c r="R32" s="18"/>
+      <c r="S32" s="18"/>
+      <c r="T32" s="10"/>
+    </row>
+    <row r="33" spans="2:20">
+      <c r="B33" s="6"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="J33" s="9"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="40"/>
+      <c r="N33" s="41"/>
+      <c r="O33" s="18"/>
+      <c r="P33" s="18"/>
+      <c r="Q33" s="18"/>
+      <c r="R33" s="18"/>
+      <c r="S33" s="18"/>
+      <c r="T33" s="10"/>
+    </row>
+    <row r="34" spans="2:20">
+      <c r="B34" s="6"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="39"/>
+      <c r="L34" s="40"/>
+      <c r="M34" s="40"/>
+      <c r="N34" s="41"/>
+      <c r="O34" s="18"/>
+      <c r="P34" s="18"/>
+      <c r="Q34" s="18"/>
+      <c r="R34" s="18"/>
+      <c r="S34" s="18"/>
+      <c r="T34" s="10"/>
+    </row>
+    <row r="35" spans="2:20">
+      <c r="B35" s="6"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="39"/>
+      <c r="L35" s="40"/>
+      <c r="M35" s="40"/>
+      <c r="N35" s="41"/>
+      <c r="O35" s="18"/>
+      <c r="P35" s="18"/>
+      <c r="Q35" s="18"/>
+      <c r="R35" s="18"/>
+      <c r="S35" s="18"/>
+      <c r="T35" s="10"/>
+    </row>
+    <row r="36" spans="2:20">
+      <c r="B36" s="6"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="39"/>
+      <c r="L36" s="40"/>
+      <c r="M36" s="40"/>
+      <c r="N36" s="41"/>
+      <c r="O36" s="18"/>
+      <c r="P36" s="18"/>
+      <c r="Q36" s="18"/>
+      <c r="R36" s="18"/>
+      <c r="S36" s="18"/>
+      <c r="T36" s="10"/>
+    </row>
+    <row r="37" spans="2:20">
+      <c r="B37" s="23"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="39"/>
+      <c r="L37" s="40"/>
+      <c r="M37" s="40"/>
+      <c r="N37" s="41"/>
+      <c r="O37" s="18"/>
+      <c r="P37" s="18"/>
+      <c r="Q37" s="18"/>
+      <c r="R37" s="18"/>
+      <c r="S37" s="18"/>
+      <c r="T37" s="10"/>
+    </row>
+    <row r="38" spans="2:20">
+      <c r="B38" s="26"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="G38" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="H38" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="I38" s="34"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="34"/>
+      <c r="M38" s="34"/>
+      <c r="N38" s="34"/>
+      <c r="O38" s="34"/>
+      <c r="P38" s="34"/>
+      <c r="Q38" s="34"/>
+      <c r="R38" s="34"/>
+      <c r="S38" s="34"/>
+      <c r="T38" s="35"/>
+    </row>
+    <row r="39" spans="2:20">
+      <c r="B39" s="6"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H39" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="I39" s="34"/>
+      <c r="J39" s="34"/>
+      <c r="K39" s="34"/>
+      <c r="L39" s="34"/>
+      <c r="M39" s="34"/>
+      <c r="N39" s="34"/>
+      <c r="O39" s="34"/>
+      <c r="P39" s="34"/>
+      <c r="Q39" s="34"/>
+      <c r="R39" s="34"/>
+      <c r="S39" s="34"/>
+      <c r="T39" s="35"/>
+    </row>
+    <row r="40" spans="2:20">
+      <c r="B40" s="6"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H40" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="I40" s="34"/>
+      <c r="J40" s="34"/>
+      <c r="K40" s="34"/>
+      <c r="L40" s="34"/>
+      <c r="M40" s="34"/>
+      <c r="N40" s="34"/>
+      <c r="O40" s="34"/>
+      <c r="P40" s="34"/>
+      <c r="Q40" s="34"/>
+      <c r="R40" s="34"/>
+      <c r="S40" s="34"/>
+      <c r="T40" s="35"/>
+    </row>
+    <row r="41" spans="2:20">
+      <c r="B41" s="6"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H41" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="I41" s="34"/>
+      <c r="J41" s="34"/>
+      <c r="K41" s="34"/>
+      <c r="L41" s="34"/>
+      <c r="M41" s="34"/>
+      <c r="N41" s="34"/>
+      <c r="O41" s="34"/>
+      <c r="P41" s="34"/>
+      <c r="Q41" s="34"/>
+      <c r="R41" s="34"/>
+      <c r="S41" s="34"/>
+      <c r="T41" s="35"/>
+    </row>
+    <row r="42" spans="2:20" ht="17.25" thickBot="1">
+      <c r="B42" s="11"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="37"/>
+      <c r="K42" s="37"/>
+      <c r="L42" s="37"/>
+      <c r="M42" s="37"/>
+      <c r="N42" s="37"/>
+      <c r="O42" s="37"/>
+      <c r="P42" s="37"/>
+      <c r="Q42" s="37"/>
+      <c r="R42" s="37"/>
+      <c r="S42" s="37"/>
+      <c r="T42" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="51">
@@ -4095,933 +6311,97 @@
     <mergeCell ref="H10:I10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="B21:G23 G7:G13 H9:H10 B34:G42 B33:F33 B24:F24 B25:G32">
-    <cfRule type="cellIs" dxfId="12" priority="4" stopIfTrue="1" operator="greaterThan">
+  <conditionalFormatting sqref="G7:G13 H9:H10 B34:G42 B33:F33 B21:G21 B22:F26 G24:G25 B27:G32">
+    <cfRule type="cellIs" dxfId="34" priority="20" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K21:T37">
-    <cfRule type="cellIs" dxfId="11" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="19" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G33">
-    <cfRule type="cellIs" dxfId="10" priority="2" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G24">
-    <cfRule type="cellIs" dxfId="9" priority="1" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.55118110236220474" right="0.55118110236220474" top="0.59055118110236227" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:T42"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I48" sqref="I48"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="2.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="2" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.21875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="37.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8" style="1" customWidth="1"/>
-    <col min="11" max="14" width="2.77734375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="6.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:11" ht="9" customHeight="1">
-      <c r="B2" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="35"/>
-    </row>
-    <row r="3" spans="2:11" ht="9" customHeight="1">
-      <c r="B3" s="36"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="38"/>
-    </row>
-    <row r="4" spans="2:11">
-      <c r="B4" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="68" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="69"/>
-    </row>
-    <row r="5" spans="2:11">
-      <c r="B5" s="52" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="31">
-        <v>44119</v>
-      </c>
-      <c r="H5" s="32" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" ht="9" customHeight="1"/>
-    <row r="7" spans="2:11">
-      <c r="B7" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" s="94"/>
-      <c r="I7" s="95"/>
-      <c r="K7" s="29" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11">
-      <c r="B8" s="46"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" s="92" t="s">
-        <v>91</v>
-      </c>
-      <c r="I8" s="93"/>
-      <c r="K8" s="29" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11">
-      <c r="B9" s="46"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="70" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" s="96" t="s">
-        <v>92</v>
-      </c>
-      <c r="I9" s="96"/>
-      <c r="K9" s="29" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11">
-      <c r="B10" s="46"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="96" t="s">
-        <v>93</v>
-      </c>
-      <c r="I10" s="96"/>
-      <c r="K10" s="29" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11">
-      <c r="B11" s="46"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="H11" s="92" t="s">
-        <v>94</v>
-      </c>
-      <c r="I11" s="93"/>
-    </row>
-    <row r="12" spans="2:11">
-      <c r="B12" s="46"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" s="92"/>
-      <c r="I12" s="93"/>
-      <c r="K12" s="29" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11">
-      <c r="B13" s="49"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="H13" s="92" t="s">
-        <v>95</v>
-      </c>
-      <c r="I13" s="93"/>
-    </row>
-    <row r="14" spans="2:11">
-      <c r="B14" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="72" t="s">
-        <v>49</v>
-      </c>
-      <c r="H14" s="73"/>
-      <c r="I14" s="74"/>
-    </row>
-    <row r="15" spans="2:11">
-      <c r="B15" s="49"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="72" t="s">
-        <v>50</v>
-      </c>
-      <c r="H15" s="73"/>
-      <c r="I15" s="74"/>
-    </row>
-    <row r="16" spans="2:11">
-      <c r="B16" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="53" t="s">
-        <v>89</v>
-      </c>
-      <c r="H16" s="53" t="s">
-        <v>51</v>
-      </c>
-      <c r="I16" s="53" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="2:20">
-      <c r="B17" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="53"/>
-    </row>
-    <row r="18" spans="2:20" ht="6.75" customHeight="1" thickBot="1"/>
-    <row r="19" spans="2:20">
-      <c r="B19" s="61" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="G19" s="67" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="I19" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="J19" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="K19" s="75" t="s">
-        <v>19</v>
-      </c>
-      <c r="L19" s="62"/>
-      <c r="M19" s="62"/>
-      <c r="N19" s="63"/>
-      <c r="O19" s="77" t="s">
-        <v>21</v>
-      </c>
-      <c r="P19" s="78"/>
-      <c r="Q19" s="78"/>
-      <c r="R19" s="78"/>
-      <c r="S19" s="79"/>
-      <c r="T19" s="80" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="2:20" ht="17.25" thickBot="1">
-      <c r="B20" s="64"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="76"/>
-      <c r="L20" s="65"/>
-      <c r="M20" s="65"/>
-      <c r="N20" s="66"/>
-      <c r="O20" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="P20" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q20" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="R20" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="S20" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="T20" s="81"/>
-    </row>
-    <row r="21" spans="2:20">
-      <c r="B21" s="2">
-        <v>1</v>
-      </c>
-      <c r="C21" s="13">
-        <v>1</v>
-      </c>
-      <c r="D21" s="13">
-        <v>1</v>
-      </c>
-      <c r="E21" s="13">
-        <v>1</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="82"/>
-      <c r="L21" s="83"/>
-      <c r="M21" s="83"/>
-      <c r="N21" s="84"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="16"/>
-      <c r="S21" s="16"/>
-      <c r="T21" s="19"/>
-    </row>
-    <row r="22" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B22" s="6"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="I22" s="8"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="58"/>
-      <c r="L22" s="59"/>
-      <c r="M22" s="59"/>
-      <c r="N22" s="60"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="18"/>
-      <c r="Q22" s="18"/>
-      <c r="R22" s="18"/>
-      <c r="S22" s="18"/>
-      <c r="T22" s="20"/>
-    </row>
-    <row r="23" spans="2:20">
-      <c r="B23" s="6"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="85"/>
-      <c r="L23" s="59"/>
-      <c r="M23" s="59"/>
-      <c r="N23" s="60"/>
-      <c r="O23" s="18"/>
-      <c r="P23" s="18"/>
-      <c r="Q23" s="18"/>
-      <c r="R23" s="18"/>
-      <c r="S23" s="18"/>
-      <c r="T23" s="10"/>
-    </row>
-    <row r="24" spans="2:20">
-      <c r="B24" s="6"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="I24" s="8"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="85"/>
-      <c r="L24" s="59"/>
-      <c r="M24" s="59"/>
-      <c r="N24" s="60"/>
-      <c r="O24" s="18"/>
-      <c r="P24" s="18"/>
-      <c r="Q24" s="18"/>
-      <c r="R24" s="18"/>
-      <c r="S24" s="18"/>
-      <c r="T24" s="10"/>
-    </row>
-    <row r="25" spans="2:20">
-      <c r="B25" s="6"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="I25" s="8"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="85"/>
-      <c r="L25" s="59"/>
-      <c r="M25" s="59"/>
-      <c r="N25" s="60"/>
-      <c r="O25" s="18"/>
-      <c r="P25" s="18"/>
-      <c r="Q25" s="18"/>
-      <c r="R25" s="18"/>
-      <c r="S25" s="18"/>
-      <c r="T25" s="10"/>
-    </row>
-    <row r="26" spans="2:20">
-      <c r="B26" s="6"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="85"/>
-      <c r="L26" s="59"/>
-      <c r="M26" s="59"/>
-      <c r="N26" s="60"/>
-      <c r="O26" s="18"/>
-      <c r="P26" s="18"/>
-      <c r="Q26" s="18"/>
-      <c r="R26" s="18"/>
-      <c r="S26" s="18"/>
-      <c r="T26" s="10"/>
-    </row>
-    <row r="27" spans="2:20">
-      <c r="B27" s="6"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="85"/>
-      <c r="L27" s="59"/>
-      <c r="M27" s="59"/>
-      <c r="N27" s="60"/>
-      <c r="O27" s="18"/>
-      <c r="P27" s="18"/>
-      <c r="Q27" s="18"/>
-      <c r="R27" s="18"/>
-      <c r="S27" s="18"/>
-      <c r="T27" s="10"/>
-    </row>
-    <row r="28" spans="2:20">
-      <c r="B28" s="6"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="85"/>
-      <c r="L28" s="59"/>
-      <c r="M28" s="59"/>
-      <c r="N28" s="60"/>
-      <c r="O28" s="18"/>
-      <c r="P28" s="18"/>
-      <c r="Q28" s="18"/>
-      <c r="R28" s="18"/>
-      <c r="S28" s="18"/>
-      <c r="T28" s="10"/>
-    </row>
-    <row r="29" spans="2:20">
-      <c r="B29" s="6"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="85"/>
-      <c r="L29" s="59"/>
-      <c r="M29" s="59"/>
-      <c r="N29" s="60"/>
-      <c r="O29" s="18"/>
-      <c r="P29" s="18"/>
-      <c r="Q29" s="18"/>
-      <c r="R29" s="18"/>
-      <c r="S29" s="18"/>
-      <c r="T29" s="10"/>
-    </row>
-    <row r="30" spans="2:20">
-      <c r="B30" s="6"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="85"/>
-      <c r="L30" s="59"/>
-      <c r="M30" s="59"/>
-      <c r="N30" s="60"/>
-      <c r="O30" s="18"/>
-      <c r="P30" s="18"/>
-      <c r="Q30" s="18"/>
-      <c r="R30" s="18"/>
-      <c r="S30" s="18"/>
-      <c r="T30" s="10"/>
-    </row>
-    <row r="31" spans="2:20">
-      <c r="B31" s="6"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="85"/>
-      <c r="L31" s="59"/>
-      <c r="M31" s="59"/>
-      <c r="N31" s="60"/>
-      <c r="O31" s="18"/>
-      <c r="P31" s="18"/>
-      <c r="Q31" s="18"/>
-      <c r="R31" s="18"/>
-      <c r="S31" s="18"/>
-      <c r="T31" s="10"/>
-    </row>
-    <row r="32" spans="2:20">
-      <c r="B32" s="6"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="85"/>
-      <c r="L32" s="59"/>
-      <c r="M32" s="59"/>
-      <c r="N32" s="60"/>
-      <c r="O32" s="18"/>
-      <c r="P32" s="18"/>
-      <c r="Q32" s="18"/>
-      <c r="R32" s="18"/>
-      <c r="S32" s="18"/>
-      <c r="T32" s="10"/>
-    </row>
-    <row r="33" spans="2:20">
-      <c r="B33" s="6"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="85"/>
-      <c r="L33" s="59"/>
-      <c r="M33" s="59"/>
-      <c r="N33" s="60"/>
-      <c r="O33" s="18"/>
-      <c r="P33" s="18"/>
-      <c r="Q33" s="18"/>
-      <c r="R33" s="18"/>
-      <c r="S33" s="18"/>
-      <c r="T33" s="10"/>
-    </row>
-    <row r="34" spans="2:20">
-      <c r="B34" s="6"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="85"/>
-      <c r="L34" s="59"/>
-      <c r="M34" s="59"/>
-      <c r="N34" s="60"/>
-      <c r="O34" s="18"/>
-      <c r="P34" s="18"/>
-      <c r="Q34" s="18"/>
-      <c r="R34" s="18"/>
-      <c r="S34" s="18"/>
-      <c r="T34" s="10"/>
-    </row>
-    <row r="35" spans="2:20">
-      <c r="B35" s="6"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="85"/>
-      <c r="L35" s="59"/>
-      <c r="M35" s="59"/>
-      <c r="N35" s="60"/>
-      <c r="O35" s="18"/>
-      <c r="P35" s="18"/>
-      <c r="Q35" s="18"/>
-      <c r="R35" s="18"/>
-      <c r="S35" s="18"/>
-      <c r="T35" s="10"/>
-    </row>
-    <row r="36" spans="2:20">
-      <c r="B36" s="6"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="85"/>
-      <c r="L36" s="59"/>
-      <c r="M36" s="59"/>
-      <c r="N36" s="60"/>
-      <c r="O36" s="18"/>
-      <c r="P36" s="18"/>
-      <c r="Q36" s="18"/>
-      <c r="R36" s="18"/>
-      <c r="S36" s="18"/>
-      <c r="T36" s="10"/>
-    </row>
-    <row r="37" spans="2:20">
-      <c r="B37" s="23"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="85"/>
-      <c r="L37" s="59"/>
-      <c r="M37" s="59"/>
-      <c r="N37" s="60"/>
-      <c r="O37" s="18"/>
-      <c r="P37" s="18"/>
-      <c r="Q37" s="18"/>
-      <c r="R37" s="18"/>
-      <c r="S37" s="18"/>
-      <c r="T37" s="10"/>
-    </row>
-    <row r="38" spans="2:20">
-      <c r="B38" s="26"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="G38" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="H38" s="86" t="s">
-        <v>63</v>
-      </c>
-      <c r="I38" s="87"/>
-      <c r="J38" s="87"/>
-      <c r="K38" s="87"/>
-      <c r="L38" s="87"/>
-      <c r="M38" s="87"/>
-      <c r="N38" s="87"/>
-      <c r="O38" s="87"/>
-      <c r="P38" s="87"/>
-      <c r="Q38" s="87"/>
-      <c r="R38" s="87"/>
-      <c r="S38" s="87"/>
-      <c r="T38" s="88"/>
-    </row>
-    <row r="39" spans="2:20">
-      <c r="B39" s="6"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H39" s="86" t="s">
-        <v>64</v>
-      </c>
-      <c r="I39" s="87"/>
-      <c r="J39" s="87"/>
-      <c r="K39" s="87"/>
-      <c r="L39" s="87"/>
-      <c r="M39" s="87"/>
-      <c r="N39" s="87"/>
-      <c r="O39" s="87"/>
-      <c r="P39" s="87"/>
-      <c r="Q39" s="87"/>
-      <c r="R39" s="87"/>
-      <c r="S39" s="87"/>
-      <c r="T39" s="88"/>
-    </row>
-    <row r="40" spans="2:20">
-      <c r="B40" s="6"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H40" s="86" t="s">
-        <v>66</v>
-      </c>
-      <c r="I40" s="87"/>
-      <c r="J40" s="87"/>
-      <c r="K40" s="87"/>
-      <c r="L40" s="87"/>
-      <c r="M40" s="87"/>
-      <c r="N40" s="87"/>
-      <c r="O40" s="87"/>
-      <c r="P40" s="87"/>
-      <c r="Q40" s="87"/>
-      <c r="R40" s="87"/>
-      <c r="S40" s="87"/>
-      <c r="T40" s="88"/>
-    </row>
-    <row r="41" spans="2:20">
-      <c r="B41" s="6"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H41" s="86" t="s">
-        <v>65</v>
-      </c>
-      <c r="I41" s="87"/>
-      <c r="J41" s="87"/>
-      <c r="K41" s="87"/>
-      <c r="L41" s="87"/>
-      <c r="M41" s="87"/>
-      <c r="N41" s="87"/>
-      <c r="O41" s="87"/>
-      <c r="P41" s="87"/>
-      <c r="Q41" s="87"/>
-      <c r="R41" s="87"/>
-      <c r="S41" s="87"/>
-      <c r="T41" s="88"/>
-    </row>
-    <row r="42" spans="2:20" ht="17.25" thickBot="1">
-      <c r="B42" s="11"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="89"/>
-      <c r="I42" s="90"/>
-      <c r="J42" s="90"/>
-      <c r="K42" s="90"/>
-      <c r="L42" s="90"/>
-      <c r="M42" s="90"/>
-      <c r="N42" s="90"/>
-      <c r="O42" s="90"/>
-      <c r="P42" s="90"/>
-      <c r="Q42" s="90"/>
-      <c r="R42" s="90"/>
-      <c r="S42" s="90"/>
-      <c r="T42" s="91"/>
-    </row>
-  </sheetData>
-  <mergeCells count="51">
-    <mergeCell ref="H41:T41"/>
-    <mergeCell ref="H42:T42"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="K36:N36"/>
-    <mergeCell ref="K37:N37"/>
-    <mergeCell ref="H38:T38"/>
-    <mergeCell ref="H39:T39"/>
-    <mergeCell ref="H40:T40"/>
-    <mergeCell ref="K29:N29"/>
-    <mergeCell ref="K30:N30"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="K32:N32"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="K34:N34"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="K24:N24"/>
-    <mergeCell ref="K25:N25"/>
-    <mergeCell ref="K26:N26"/>
-    <mergeCell ref="K27:N27"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:N20"/>
-    <mergeCell ref="O19:S19"/>
-    <mergeCell ref="T19:T20"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="B19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="B14:F15"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="B2:H3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B7:F13"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="B21:G23 G7:G13 H9:H10 B34:G42 B33:F33 B24:F24 B25:G25 B27:G32 B26:F26">
-    <cfRule type="cellIs" dxfId="7" priority="5" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K21:T37">
-    <cfRule type="cellIs" dxfId="6" priority="4" stopIfTrue="1" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G33">
-    <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G24">
-    <cfRule type="cellIs" dxfId="4" priority="2" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="32" priority="18" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
+    <cfRule type="cellIs" dxfId="31" priority="17" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G26">
+    <cfRule type="cellIs" dxfId="30" priority="15" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G27">
+    <cfRule type="cellIs" dxfId="29" priority="14" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G28">
+    <cfRule type="cellIs" dxfId="28" priority="13" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G28">
+    <cfRule type="cellIs" dxfId="27" priority="12" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29">
+    <cfRule type="cellIs" dxfId="23" priority="11" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29">
+    <cfRule type="cellIs" dxfId="21" priority="10" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G27">
+    <cfRule type="cellIs" dxfId="18" priority="9" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G27">
+    <cfRule type="cellIs" dxfId="16" priority="8" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G28">
+    <cfRule type="cellIs" dxfId="14" priority="7" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29">
+    <cfRule type="cellIs" dxfId="12" priority="6" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29">
+    <cfRule type="cellIs" dxfId="10" priority="5" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G30">
+    <cfRule type="cellIs" dxfId="8" priority="4" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G30">
+    <cfRule type="cellIs" dxfId="6" priority="3" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G31">
+    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G31">
     <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
